--- a/Nanjing/excel/xxm-WaitingBlock.xlsx
+++ b/Nanjing/excel/xxm-WaitingBlock.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="21840" windowHeight="13740" tabRatio="681" activeTab="9"/>
@@ -29,7 +29,7 @@
     <definedName name="N16MA700" localSheetId="2">'700'!$A$1:$D$103</definedName>
     <definedName name="N16MA800" localSheetId="1">'800'!$A$1:$D$103</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -135,10 +135,6 @@
     <t>resultsExperiments/blockingVsWaiting/N16MA300.0del5.0</t>
   </si>
   <si>
-    <t>Waiting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>resultsExperiments/blockingVsWaiting/N16MA250.0del5.0</t>
   </si>
   <si>
@@ -155,15 +151,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Blocking</t>
+    <t>VC-VF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VC-CV/BF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -201,15 +201,29 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
-  <c:style val="18"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -224,6 +238,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -233,7 +248,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Blocking</c:v>
+                  <c:v>VC-CV/BF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -310,6 +325,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -320,7 +336,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Waiting</c:v>
+                  <c:v>VC-VF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -397,16 +413,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="97137024"/>
-        <c:axId val="100182272"/>
+        <c:smooth val="0"/>
+        <c:axId val="147557760"/>
+        <c:axId val="147580416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97137024"/>
+        <c:axId val="147557760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -426,20 +453,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100182272"/>
+        <c:crossAx val="147580416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100182272"/>
+        <c:axId val="147580416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -459,10 +491,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97137024"/>
+        <c:crossAx val="147557760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -479,8 +514,11 @@
           <c:h val="0.15243762601329211"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -489,7 +527,7 @@
       <a:pPr>
         <a:defRPr sz="1400"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -890,7 +928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C106"/>
   <sheetViews>
@@ -898,18 +936,18 @@
       <selection activeCell="B104" sqref="B104:C106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -920,7 +958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-1286082570</v>
       </c>
@@ -931,7 +969,7 @@
         <v>112.308105</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-1343278692</v>
       </c>
@@ -942,7 +980,7 @@
         <v>454.20605</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-390706926</v>
       </c>
@@ -953,7 +991,7 @@
         <v>219.55273</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-488269753</v>
       </c>
@@ -964,7 +1002,7 @@
         <v>794.34960000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1355994690</v>
       </c>
@@ -975,7 +1013,7 @@
         <v>1073.3163999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-1870576674</v>
       </c>
@@ -986,7 +1024,7 @@
         <v>347.95800000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>893439232</v>
       </c>
@@ -997,7 +1035,7 @@
         <v>93.169430000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1224357370</v>
       </c>
@@ -1008,7 +1046,7 @@
         <v>277.14940000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-1000844826</v>
       </c>
@@ -1019,7 +1057,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-410467215</v>
       </c>
@@ -1030,7 +1068,7 @@
         <v>215.74610000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-769891236</v>
       </c>
@@ -1041,7 +1079,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-1643004735</v>
       </c>
@@ -1052,7 +1090,7 @@
         <v>285.2373</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1245262285</v>
       </c>
@@ -1063,7 +1101,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-1930500567</v>
       </c>
@@ -1074,7 +1112,7 @@
         <v>434.03710000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>57707875</v>
       </c>
@@ -1085,7 +1123,7 @@
         <v>104.83301</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1491976541</v>
       </c>
@@ -1096,7 +1134,7 @@
         <v>746.72655999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-1744824489</v>
       </c>
@@ -1107,7 +1145,7 @@
         <v>613.70703000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-1177242190</v>
       </c>
@@ -1118,7 +1156,7 @@
         <v>1214.4413999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>430749522</v>
       </c>
@@ -1129,7 +1167,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1899147052</v>
       </c>
@@ -1140,7 +1178,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-918847619</v>
       </c>
@@ -1151,7 +1189,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>67065317</v>
       </c>
@@ -1162,7 +1200,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>843147817</v>
       </c>
@@ -1173,7 +1211,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1755827864</v>
       </c>
@@ -1184,7 +1222,7 @@
         <v>157.49755999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1618786872</v>
       </c>
@@ -1195,7 +1233,7 @@
         <v>68.434569999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-1529139876</v>
       </c>
@@ -1206,7 +1244,7 @@
         <v>373.77148</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-1419925839</v>
       </c>
@@ -1217,7 +1255,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-1295204656</v>
       </c>
@@ -1228,7 +1266,7 @@
         <v>321.53125</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-146508765</v>
       </c>
@@ -1239,7 +1277,7 @@
         <v>364.95996000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>776520</v>
       </c>
@@ -1250,7 +1288,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1993589440</v>
       </c>
@@ -1261,7 +1299,7 @@
         <v>938.64746000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-1528801606</v>
       </c>
@@ -1272,7 +1310,7 @@
         <v>124.67041</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-1745111458</v>
       </c>
@@ -1283,7 +1321,7 @@
         <v>485.85645</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1183316353</v>
       </c>
@@ -1294,7 +1332,7 @@
         <v>220.15234000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>12142011</v>
       </c>
@@ -1305,7 +1343,7 @@
         <v>1364.1641</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>163586344</v>
       </c>
@@ -1316,7 +1354,7 @@
         <v>1420.3818000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>362971318</v>
       </c>
@@ -1327,7 +1365,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>-73586210</v>
       </c>
@@ -1338,7 +1376,7 @@
         <v>229.06934000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>361335133</v>
       </c>
@@ -1349,7 +1387,7 @@
         <v>1029.8477</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1741088841</v>
       </c>
@@ -1360,7 +1398,7 @@
         <v>118.91699</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-473210366</v>
       </c>
@@ -1371,7 +1409,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>707378374</v>
       </c>
@@ -1382,7 +1420,7 @@
         <v>131.86426</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-1043651914</v>
       </c>
@@ -1393,7 +1431,7 @@
         <v>373.02539999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>507774049</v>
       </c>
@@ -1404,7 +1442,7 @@
         <v>787.35350000000005</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2030940879</v>
       </c>
@@ -1415,7 +1453,7 @@
         <v>1680.8417999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>924781319</v>
       </c>
@@ -1426,7 +1464,7 @@
         <v>135.95996</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1991530357</v>
       </c>
@@ -1437,7 +1475,7 @@
         <v>226.36035000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-745774660</v>
       </c>
@@ -1448,7 +1486,7 @@
         <v>543.7627</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>-1936828865</v>
       </c>
@@ -1459,7 +1497,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2084072678</v>
       </c>
@@ -1470,7 +1508,7 @@
         <v>704.27930000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1145774953</v>
       </c>
@@ -1481,7 +1519,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>-2025754144</v>
       </c>
@@ -1492,7 +1530,7 @@
         <v>398.93457000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>249111853</v>
       </c>
@@ -1503,7 +1541,7 @@
         <v>566.4248</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>-1879035786</v>
       </c>
@@ -1514,7 +1552,7 @@
         <v>161.49072000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>-431910332</v>
       </c>
@@ -1525,7 +1563,7 @@
         <v>1619.0361</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>-1116111871</v>
       </c>
@@ -1536,7 +1574,7 @@
         <v>2321.2449999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>-2059180139</v>
       </c>
@@ -1547,7 +1585,7 @@
         <v>861.12789999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1207771437</v>
       </c>
@@ -1558,7 +1596,7 @@
         <v>413.50292999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>-308842078</v>
       </c>
@@ -1569,7 +1607,7 @@
         <v>646.53905999999995</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>305660089</v>
       </c>
@@ -1580,7 +1618,7 @@
         <v>180.88379</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>-5111757</v>
       </c>
@@ -1591,7 +1629,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>-596085581</v>
       </c>
@@ -1602,7 +1640,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>-99180727</v>
       </c>
@@ -1613,7 +1651,7 @@
         <v>139.08251999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>-2141444872</v>
       </c>
@@ -1624,7 +1662,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>-1323028887</v>
       </c>
@@ -1635,7 +1673,7 @@
         <v>975.62400000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>-67817219</v>
       </c>
@@ -1646,7 +1684,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>-1135642702</v>
       </c>
@@ -1657,7 +1695,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1595299896</v>
       </c>
@@ -1668,7 +1706,7 @@
         <v>1111.9951000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>-569505179</v>
       </c>
@@ -1679,7 +1717,7 @@
         <v>1361.9121</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1013931930</v>
       </c>
@@ -1690,7 +1728,7 @@
         <v>591.08105</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>521087176</v>
       </c>
@@ -1701,7 +1739,7 @@
         <v>112.16308600000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>-1672107531</v>
       </c>
@@ -1712,7 +1750,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1453072259</v>
       </c>
@@ -1723,7 +1761,7 @@
         <v>167.34912</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>-217406900</v>
       </c>
@@ -1734,7 +1772,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1185017070</v>
       </c>
@@ -1745,7 +1783,7 @@
         <v>141.18163999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>-860847524</v>
       </c>
@@ -1756,7 +1794,7 @@
         <v>272.10645</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>-1330919185</v>
       </c>
@@ -1767,7 +1805,7 @@
         <v>728.62990000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>-1522729766</v>
       </c>
@@ -1778,7 +1816,7 @@
         <v>1194.9590000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>416248391</v>
       </c>
@@ -1789,7 +1827,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>22262338</v>
       </c>
@@ -1800,7 +1838,7 @@
         <v>778.48925999999994</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1943680142</v>
       </c>
@@ -1811,7 +1849,7 @@
         <v>173.59912</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>-1443108828</v>
       </c>
@@ -1822,7 +1860,7 @@
         <v>325.45702999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1251996208</v>
       </c>
@@ -1833,7 +1871,7 @@
         <v>53.693848000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>-574747049</v>
       </c>
@@ -1844,7 +1882,7 @@
         <v>601.73829999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>331755550</v>
       </c>
@@ -1855,7 +1893,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>725549688</v>
       </c>
@@ -1866,7 +1904,7 @@
         <v>1324.4639</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>-723731183</v>
       </c>
@@ -1877,7 +1915,7 @@
         <v>1083.7284999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>-2135029349</v>
       </c>
@@ -1888,7 +1926,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>-138468197</v>
       </c>
@@ -1899,7 +1937,7 @@
         <v>123.05078</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>428667171</v>
       </c>
@@ -1910,7 +1948,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>-2044248491</v>
       </c>
@@ -1921,7 +1959,7 @@
         <v>633.58399999999995</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>-1853226225</v>
       </c>
@@ -1932,7 +1970,7 @@
         <v>445.65233999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>-1646402588</v>
       </c>
@@ -1943,7 +1981,7 @@
         <v>871.65039999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>830228297</v>
       </c>
@@ -1954,7 +1992,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>-844251978</v>
       </c>
@@ -1965,7 +2003,7 @@
         <v>1677.0742</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>706951856</v>
       </c>
@@ -1976,7 +2014,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>-1205195618</v>
       </c>
@@ -1987,7 +2025,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1734051321</v>
       </c>
@@ -1998,7 +2036,7 @@
         <v>481.66309999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>-332047683</v>
       </c>
@@ -2009,7 +2047,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>-1497456224</v>
       </c>
@@ -2020,7 +2058,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B104">
         <f>AVERAGE(B4:B103)</f>
         <v>287.91508734000001</v>
@@ -2030,7 +2068,7 @@
         <v>434.42200508999997</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B105">
         <f>B106/10</f>
         <v>28.506124047591943</v>
@@ -2040,7 +2078,7 @@
         <v>47.701328586777599</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B106">
         <f>STDEV(B4:B103)</f>
         <v>285.06124047591942</v>
@@ -2063,19 +2101,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1">
         <v>1600</v>
@@ -2105,7 +2143,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2146,9 +2184,9 @@
         <v>682.29131280000013</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <f>'1600'!$C$104</f>
@@ -2201,7 +2239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C106"/>
   <sheetViews>
@@ -2209,18 +2247,18 @@
       <selection activeCell="B105" sqref="B105:C106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2231,7 +2269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-1286082570</v>
       </c>
@@ -2242,7 +2280,7 @@
         <v>189.6123</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-1343278692</v>
       </c>
@@ -2253,7 +2291,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-390706926</v>
       </c>
@@ -2264,7 +2302,7 @@
         <v>2631.8184000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-488269753</v>
       </c>
@@ -2275,7 +2313,7 @@
         <v>2536.6938</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1355994690</v>
       </c>
@@ -2286,7 +2324,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-1870576674</v>
       </c>
@@ -2297,7 +2335,7 @@
         <v>663.40769999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>893439232</v>
       </c>
@@ -2308,7 +2346,7 @@
         <v>873.28563999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1224357370</v>
       </c>
@@ -2319,7 +2357,7 @@
         <v>68.195800000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-1000844826</v>
       </c>
@@ -2330,7 +2368,7 @@
         <v>2178.8856999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-410467215</v>
       </c>
@@ -2341,7 +2379,7 @@
         <v>204.65430000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-769891236</v>
       </c>
@@ -2352,7 +2390,7 @@
         <v>351.23827999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-1643004735</v>
       </c>
@@ -2363,7 +2401,7 @@
         <v>4795.1953000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1245262285</v>
       </c>
@@ -2374,7 +2412,7 @@
         <v>259.95654000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-1930500567</v>
       </c>
@@ -2385,7 +2423,7 @@
         <v>1276.4453000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>57707875</v>
       </c>
@@ -2396,7 +2434,7 @@
         <v>1185.7695000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1491976541</v>
       </c>
@@ -2407,7 +2445,7 @@
         <v>351.41602</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-1744824489</v>
       </c>
@@ -2418,7 +2456,7 @@
         <v>232.8125</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-1177242190</v>
       </c>
@@ -2429,7 +2467,7 @@
         <v>890.08105</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>430749522</v>
       </c>
@@ -2440,7 +2478,7 @@
         <v>838.78809999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1899147052</v>
       </c>
@@ -2451,7 +2489,7 @@
         <v>913.14260000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-918847619</v>
       </c>
@@ -2462,7 +2500,7 @@
         <v>1071.7329</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>67065317</v>
       </c>
@@ -2473,7 +2511,7 @@
         <v>292.06054999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>843147817</v>
       </c>
@@ -2484,7 +2522,7 @@
         <v>1396.9146000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1755827864</v>
       </c>
@@ -2495,7 +2533,7 @@
         <v>1726.2905000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1618786872</v>
       </c>
@@ -2506,7 +2544,7 @@
         <v>1065.9971</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-1529139876</v>
       </c>
@@ -2517,7 +2555,7 @@
         <v>120.90380999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-1419925839</v>
       </c>
@@ -2528,7 +2566,7 @@
         <v>507.93065999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-1295204656</v>
       </c>
@@ -2539,7 +2577,7 @@
         <v>217.34961000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-146508765</v>
       </c>
@@ -2550,7 +2588,7 @@
         <v>1335.9321</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>776520</v>
       </c>
@@ -2561,7 +2599,7 @@
         <v>365.89940000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1993589440</v>
       </c>
@@ -2572,7 +2610,7 @@
         <v>652.49170000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-1528801606</v>
       </c>
@@ -2583,7 +2621,7 @@
         <v>4484.7460000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-1745111458</v>
       </c>
@@ -2594,7 +2632,7 @@
         <v>1484.3145</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1183316353</v>
       </c>
@@ -2605,7 +2643,7 @@
         <v>1964.0282999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>12142011</v>
       </c>
@@ -2616,7 +2654,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>163586344</v>
       </c>
@@ -2627,7 +2665,7 @@
         <v>424.64062000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>362971318</v>
       </c>
@@ -2638,7 +2676,7 @@
         <v>204.96484000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>-73586210</v>
       </c>
@@ -2649,7 +2687,7 @@
         <v>640.08450000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>361335133</v>
       </c>
@@ -2660,7 +2698,7 @@
         <v>1979.0542</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1741088841</v>
       </c>
@@ -2671,7 +2709,7 @@
         <v>2283.2157999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-473210366</v>
       </c>
@@ -2682,7 +2720,7 @@
         <v>355.62988000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>707378374</v>
       </c>
@@ -2693,7 +2731,7 @@
         <v>1246.9375</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-1043651914</v>
       </c>
@@ -2704,7 +2742,7 @@
         <v>473.24365</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>507774049</v>
       </c>
@@ -2715,7 +2753,7 @@
         <v>1011.0669</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2030940879</v>
       </c>
@@ -2726,7 +2764,7 @@
         <v>1517.8604</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>924781319</v>
       </c>
@@ -2737,7 +2775,7 @@
         <v>370.17919999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1991530357</v>
       </c>
@@ -2748,7 +2786,7 @@
         <v>381.50585999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-745774660</v>
       </c>
@@ -2759,7 +2797,7 @@
         <v>1184.4296999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>-1936828865</v>
       </c>
@@ -2770,7 +2808,7 @@
         <v>444.52343999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2084072678</v>
       </c>
@@ -2781,7 +2819,7 @@
         <v>2208.7489999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1145774953</v>
       </c>
@@ -2792,7 +2830,7 @@
         <v>832.8252</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>-2025754144</v>
       </c>
@@ -2803,7 +2841,7 @@
         <v>801.75635</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>249111853</v>
       </c>
@@ -2814,7 +2852,7 @@
         <v>375.90087999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>-1879035786</v>
       </c>
@@ -2825,7 +2863,7 @@
         <v>1800.4477999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>-431910332</v>
       </c>
@@ -2836,7 +2874,7 @@
         <v>1552.2421999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>-1116111871</v>
       </c>
@@ -2847,7 +2885,7 @@
         <v>178.10254</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>-2059180139</v>
       </c>
@@ -2858,7 +2896,7 @@
         <v>1242.6342999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1207771437</v>
       </c>
@@ -2869,7 +2907,7 @@
         <v>216.05713</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>-308842078</v>
       </c>
@@ -2880,7 +2918,7 @@
         <v>1592.252</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>305660089</v>
       </c>
@@ -2891,7 +2929,7 @@
         <v>779.7627</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>-5111757</v>
       </c>
@@ -2902,7 +2940,7 @@
         <v>2793.3593999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>-596085581</v>
       </c>
@@ -2913,7 +2951,7 @@
         <v>1071.4385</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>-99180727</v>
       </c>
@@ -2924,7 +2962,7 @@
         <v>571.9248</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>-2141444872</v>
       </c>
@@ -2935,7 +2973,7 @@
         <v>1426.749</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>-1323028887</v>
       </c>
@@ -2946,7 +2984,7 @@
         <v>684.46780000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>-67817219</v>
       </c>
@@ -2957,7 +2995,7 @@
         <v>1580.5967000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>-1135642702</v>
       </c>
@@ -2968,7 +3006,7 @@
         <v>611.48486000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1595299896</v>
       </c>
@@ -2979,7 +3017,7 @@
         <v>789.75194999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>-569505179</v>
       </c>
@@ -2990,7 +3028,7 @@
         <v>84.157714999999996</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1013931930</v>
       </c>
@@ -3001,7 +3039,7 @@
         <v>854.54200000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>521087176</v>
       </c>
@@ -3012,7 +3050,7 @@
         <v>2537.8647000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>-1672107531</v>
       </c>
@@ -3023,7 +3061,7 @@
         <v>457.15039999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1453072259</v>
       </c>
@@ -3034,7 +3072,7 @@
         <v>454.55957000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>-217406900</v>
       </c>
@@ -3045,7 +3083,7 @@
         <v>1828.6392000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1185017070</v>
       </c>
@@ -3056,7 +3094,7 @@
         <v>912.55175999999994</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>-860847524</v>
       </c>
@@ -3067,7 +3105,7 @@
         <v>780.49509999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>-1330919185</v>
       </c>
@@ -3078,7 +3116,7 @@
         <v>204.7124</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>-1522729766</v>
       </c>
@@ -3089,7 +3127,7 @@
         <v>1021.01953</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>416248391</v>
       </c>
@@ -3100,7 +3138,7 @@
         <v>3446.2080000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>22262338</v>
       </c>
@@ -3111,7 +3149,7 @@
         <v>928.90819999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1943680142</v>
       </c>
@@ -3122,7 +3160,7 @@
         <v>603.22609999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>-1443108828</v>
       </c>
@@ -3133,7 +3171,7 @@
         <v>575.81640000000004</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1251996208</v>
       </c>
@@ -3144,7 +3182,7 @@
         <v>73.671139999999994</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>-574747049</v>
       </c>
@@ -3155,7 +3193,7 @@
         <v>203.45751999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>331755550</v>
       </c>
@@ -3166,7 +3204,7 @@
         <v>304.6499</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>725549688</v>
       </c>
@@ -3177,7 +3215,7 @@
         <v>1700.4721999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>-723731183</v>
       </c>
@@ -3188,7 +3226,7 @@
         <v>352.72120000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>-2135029349</v>
       </c>
@@ -3199,7 +3237,7 @@
         <v>308.07909999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>-138468197</v>
       </c>
@@ -3210,7 +3248,7 @@
         <v>88.461669999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>428667171</v>
       </c>
@@ -3221,7 +3259,7 @@
         <v>850.13279999999997</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>-2044248491</v>
       </c>
@@ -3232,7 +3270,7 @@
         <v>1057.7778000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>-1853226225</v>
       </c>
@@ -3243,7 +3281,7 @@
         <v>476.12646000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>-1646402588</v>
       </c>
@@ -3254,7 +3292,7 @@
         <v>1433.9077</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>830228297</v>
       </c>
@@ -3265,7 +3303,7 @@
         <v>221.82568000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>-844251978</v>
       </c>
@@ -3276,7 +3314,7 @@
         <v>777.63430000000005</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>706951856</v>
       </c>
@@ -3287,7 +3325,7 @@
         <v>888.66309999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>-1205195618</v>
       </c>
@@ -3298,7 +3336,7 @@
         <v>598.09619999999995</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1734051321</v>
       </c>
@@ -3309,7 +3347,7 @@
         <v>2141.2157999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>-332047683</v>
       </c>
@@ -3320,7 +3358,7 @@
         <v>368.85352</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>-1497456224</v>
       </c>
@@ -3331,7 +3369,7 @@
         <v>1750.7686000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B104">
         <f>AVERAGE(B4:B103)</f>
         <v>405.2594885499999</v>
@@ -3341,7 +3379,7 @@
         <v>991.62195925000003</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B105">
         <f>B106/10</f>
         <v>27.782277803938179</v>
@@ -3351,7 +3389,7 @@
         <v>89.177291589733301</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B106">
         <f>STDEV(B4:B103)</f>
         <v>277.82277803938177</v>
@@ -3374,7 +3412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C106"/>
   <sheetViews>
@@ -3382,18 +3420,18 @@
       <selection activeCell="B104" sqref="B104:C106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3404,7 +3442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-1286082570</v>
       </c>
@@ -3415,7 +3453,7 @@
         <v>934.75635</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-1343278692</v>
       </c>
@@ -3426,7 +3464,7 @@
         <v>3385.2368000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-390706926</v>
       </c>
@@ -3437,7 +3475,7 @@
         <v>834.53030000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-488269753</v>
       </c>
@@ -3448,7 +3486,7 @@
         <v>754.03954999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1355994690</v>
       </c>
@@ -3459,7 +3497,7 @@
         <v>338.65967000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-1870576674</v>
       </c>
@@ -3470,7 +3508,7 @@
         <v>2156.607</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>893439232</v>
       </c>
@@ -3481,7 +3519,7 @@
         <v>1169.5498</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1224357370</v>
       </c>
@@ -3492,7 +3530,7 @@
         <v>2813.3022000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-1000844826</v>
       </c>
@@ -3503,7 +3541,7 @@
         <v>1207.1806999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-410467215</v>
       </c>
@@ -3514,7 +3552,7 @@
         <v>3706.248</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-769891236</v>
       </c>
@@ -3525,7 +3563,7 @@
         <v>247.78856999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-1643004735</v>
       </c>
@@ -3536,7 +3574,7 @@
         <v>3607.4443000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1245262285</v>
       </c>
@@ -3547,7 +3585,7 @@
         <v>321.8064</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-1930500567</v>
       </c>
@@ -3558,7 +3596,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>57707875</v>
       </c>
@@ -3569,7 +3607,7 @@
         <v>2233.1264999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1491976541</v>
       </c>
@@ -3580,7 +3618,7 @@
         <v>884.67920000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-1744824489</v>
       </c>
@@ -3591,7 +3629,7 @@
         <v>1503.1772000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-1177242190</v>
       </c>
@@ -3602,7 +3640,7 @@
         <v>2135.8456999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>430749522</v>
       </c>
@@ -3613,7 +3651,7 @@
         <v>559.35180000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1899147052</v>
       </c>
@@ -3624,7 +3662,7 @@
         <v>1556.9312</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-918847619</v>
       </c>
@@ -3635,7 +3673,7 @@
         <v>1187.2085</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>67065317</v>
       </c>
@@ -3646,7 +3684,7 @@
         <v>422.09789999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>843147817</v>
       </c>
@@ -3657,7 +3695,7 @@
         <v>1633.6063999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1755827864</v>
       </c>
@@ -3668,7 +3706,7 @@
         <v>1730.7842000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1618786872</v>
       </c>
@@ -3679,7 +3717,7 @@
         <v>4633.9146000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-1529139876</v>
       </c>
@@ -3690,7 +3728,7 @@
         <v>806.31790000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-1419925839</v>
       </c>
@@ -3701,7 +3739,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-1295204656</v>
       </c>
@@ -3712,7 +3750,7 @@
         <v>90.58887</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-146508765</v>
       </c>
@@ -3723,7 +3761,7 @@
         <v>497.34325999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>776520</v>
       </c>
@@ -3734,7 +3772,7 @@
         <v>5496.5749999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1993589440</v>
       </c>
@@ -3745,7 +3783,7 @@
         <v>217.87963999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-1528801606</v>
       </c>
@@ -3756,7 +3794,7 @@
         <v>286.8723</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-1745111458</v>
       </c>
@@ -3767,7 +3805,7 @@
         <v>1699.1840999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1183316353</v>
       </c>
@@ -3778,7 +3816,7 @@
         <v>1944.5352</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>12142011</v>
       </c>
@@ -3789,7 +3827,7 @@
         <v>1749.8955000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>163586344</v>
       </c>
@@ -3800,7 +3838,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>362971318</v>
       </c>
@@ -3811,7 +3849,7 @@
         <v>42.488280000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>-73586210</v>
       </c>
@@ -3822,7 +3860,7 @@
         <v>304.74439999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>361335133</v>
       </c>
@@ -3833,7 +3871,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1741088841</v>
       </c>
@@ -3844,7 +3882,7 @@
         <v>2229.6626000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-473210366</v>
       </c>
@@ -3855,7 +3893,7 @@
         <v>557.96094000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>707378374</v>
       </c>
@@ -3866,7 +3904,7 @@
         <v>2426.2017000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-1043651914</v>
       </c>
@@ -3877,7 +3915,7 @@
         <v>1865.1659999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>507774049</v>
       </c>
@@ -3888,7 +3926,7 @@
         <v>256.34129999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2030940879</v>
       </c>
@@ -3899,7 +3937,7 @@
         <v>2893.6161999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>924781319</v>
       </c>
@@ -3910,7 +3948,7 @@
         <v>137.75513000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1991530357</v>
       </c>
@@ -3921,7 +3959,7 @@
         <v>3313.0482999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-745774660</v>
       </c>
@@ -3932,7 +3970,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>-1936828865</v>
       </c>
@@ -3943,7 +3981,7 @@
         <v>2190.5907999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2084072678</v>
       </c>
@@ -3954,7 +3992,7 @@
         <v>438.65015</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1145774953</v>
       </c>
@@ -3965,7 +4003,7 @@
         <v>3868.9448000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>-2025754144</v>
       </c>
@@ -3976,7 +4014,7 @@
         <v>703.88085999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>249111853</v>
       </c>
@@ -3987,7 +4025,7 @@
         <v>273.78026999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>-1879035786</v>
       </c>
@@ -3998,7 +4036,7 @@
         <v>1766.7070000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>-431910332</v>
       </c>
@@ -4009,7 +4047,7 @@
         <v>1324.0473999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>-1116111871</v>
       </c>
@@ -4020,7 +4058,7 @@
         <v>579.31299999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>-2059180139</v>
       </c>
@@ -4031,7 +4069,7 @@
         <v>640.37599999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1207771437</v>
       </c>
@@ -4042,7 +4080,7 @@
         <v>3404.3325</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>-308842078</v>
       </c>
@@ -4053,7 +4091,7 @@
         <v>416.5027</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>305660089</v>
       </c>
@@ -4064,7 +4102,7 @@
         <v>145.45703</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>-5111757</v>
       </c>
@@ -4075,7 +4113,7 @@
         <v>4998.3729999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>-596085581</v>
       </c>
@@ -4086,7 +4124,7 @@
         <v>1608.3896</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>-99180727</v>
       </c>
@@ -4097,7 +4135,7 @@
         <v>407.95215000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>-2141444872</v>
       </c>
@@ -4108,7 +4146,7 @@
         <v>250.40942000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>-1323028887</v>
       </c>
@@ -4119,7 +4157,7 @@
         <v>2127.5596</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>-67817219</v>
       </c>
@@ -4130,7 +4168,7 @@
         <v>2967.6304</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>-1135642702</v>
       </c>
@@ -4141,7 +4179,7 @@
         <v>384.83373999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1595299896</v>
       </c>
@@ -4152,7 +4190,7 @@
         <v>802.52099999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>-569505179</v>
       </c>
@@ -4163,7 +4201,7 @@
         <v>307.79613999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1013931930</v>
       </c>
@@ -4174,7 +4212,7 @@
         <v>2478.8472000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>521087176</v>
       </c>
@@ -4185,7 +4223,7 @@
         <v>446.97460000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>-1672107531</v>
       </c>
@@ -4196,7 +4234,7 @@
         <v>2198.6333</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1453072259</v>
       </c>
@@ -4207,7 +4245,7 @@
         <v>786.83839999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>-217406900</v>
       </c>
@@ -4218,7 +4256,7 @@
         <v>201.10570999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1185017070</v>
       </c>
@@ -4229,7 +4267,7 @@
         <v>5820.9022999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>-860847524</v>
       </c>
@@ -4240,7 +4278,7 @@
         <v>1838.5327</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>-1330919185</v>
       </c>
@@ -4251,7 +4289,7 @@
         <v>86.481930000000006</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>-1522729766</v>
       </c>
@@ -4262,7 +4300,7 @@
         <v>200.60059000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>416248391</v>
       </c>
@@ -4273,7 +4311,7 @@
         <v>708.22799999999995</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>22262338</v>
       </c>
@@ -4284,7 +4322,7 @@
         <v>729.05175999999994</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1943680142</v>
       </c>
@@ -4295,7 +4333,7 @@
         <v>1190.54</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>-1443108828</v>
       </c>
@@ -4306,7 +4344,7 @@
         <v>1955.3462</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1251996208</v>
       </c>
@@ -4317,7 +4355,7 @@
         <v>3636.4683</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>-574747049</v>
       </c>
@@ -4328,7 +4366,7 @@
         <v>1980.3696</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>331755550</v>
       </c>
@@ -4339,7 +4377,7 @@
         <v>3280.8593999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>725549688</v>
       </c>
@@ -4350,7 +4388,7 @@
         <v>5246.3310000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>-723731183</v>
       </c>
@@ -4361,7 +4399,7 @@
         <v>770.18164000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>-2135029349</v>
       </c>
@@ -4372,7 +4410,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>-138468197</v>
       </c>
@@ -4383,7 +4421,7 @@
         <v>236.11255</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>428667171</v>
       </c>
@@ -4394,7 +4432,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>-2044248491</v>
       </c>
@@ -4405,7 +4443,7 @@
         <v>1007.0517599999999</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>-1853226225</v>
       </c>
@@ -4416,7 +4454,7 @@
         <v>299.44213999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>-1646402588</v>
       </c>
@@ -4427,7 +4465,7 @@
         <v>1047.7632000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>830228297</v>
       </c>
@@ -4438,7 +4476,7 @@
         <v>417.49340000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>-844251978</v>
       </c>
@@ -4449,7 +4487,7 @@
         <v>3978.0088000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>706951856</v>
       </c>
@@ -4460,7 +4498,7 @@
         <v>564.7627</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>-1205195618</v>
       </c>
@@ -4471,7 +4509,7 @@
         <v>2526.9731000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1734051321</v>
       </c>
@@ -4482,7 +4520,7 @@
         <v>1056.2261000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>-332047683</v>
       </c>
@@ -4493,7 +4531,7 @@
         <v>94.199460000000002</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>-1497456224</v>
       </c>
@@ -4504,7 +4542,7 @@
         <v>6396.0576000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B104">
         <f>AVERAGE(B4:B103)</f>
         <v>470.02168679000005</v>
@@ -4514,7 +4552,7 @@
         <v>1479.7248045999995</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B105">
         <f>B106/10</f>
         <v>32.155792641883934</v>
@@ -4524,7 +4562,7 @@
         <v>147.26192283737504</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B106">
         <f>STDEV(B4:B103)</f>
         <v>321.55792641883932</v>
@@ -4547,7 +4585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C106"/>
   <sheetViews>
@@ -4555,18 +4593,18 @@
       <selection activeCell="B104" sqref="B104:C106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4577,7 +4615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-1286082570</v>
       </c>
@@ -4588,7 +4626,7 @@
         <v>634.46140000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-1343278692</v>
       </c>
@@ -4599,7 +4637,7 @@
         <v>1298.8779</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-390706926</v>
       </c>
@@ -4610,7 +4648,7 @@
         <v>713.53174000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-488269753</v>
       </c>
@@ -4621,7 +4659,7 @@
         <v>422.08422999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1355994690</v>
       </c>
@@ -4632,7 +4670,7 @@
         <v>133.21924000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-1870576674</v>
       </c>
@@ -4643,7 +4681,7 @@
         <v>1605.9536000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>893439232</v>
       </c>
@@ -4654,7 +4692,7 @@
         <v>795.70119999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1224357370</v>
       </c>
@@ -4665,7 +4703,7 @@
         <v>46.094481999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-1000844826</v>
       </c>
@@ -4676,7 +4714,7 @@
         <v>1514.731</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-410467215</v>
       </c>
@@ -4687,7 +4725,7 @@
         <v>784.32910000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-769891236</v>
       </c>
@@ -4698,7 +4736,7 @@
         <v>1479.2954</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-1643004735</v>
       </c>
@@ -4709,7 +4747,7 @@
         <v>505.31639999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1245262285</v>
       </c>
@@ -4720,7 +4758,7 @@
         <v>277.93822999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-1930500567</v>
       </c>
@@ -4731,7 +4769,7 @@
         <v>3499.1758</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>57707875</v>
       </c>
@@ -4742,7 +4780,7 @@
         <v>3207.5127000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1491976541</v>
       </c>
@@ -4753,7 +4791,7 @@
         <v>1352.3457000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-1744824489</v>
       </c>
@@ -4764,7 +4802,7 @@
         <v>1131.0376000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-1177242190</v>
       </c>
@@ -4775,7 +4813,7 @@
         <v>3144.0054</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>430749522</v>
       </c>
@@ -4786,7 +4824,7 @@
         <v>1067.5142000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1899147052</v>
       </c>
@@ -4797,7 +4835,7 @@
         <v>7985.7676000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-918847619</v>
       </c>
@@ -4808,7 +4846,7 @@
         <v>3915.2188000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>67065317</v>
       </c>
@@ -4819,7 +4857,7 @@
         <v>2737.3906000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>843147817</v>
       </c>
@@ -4830,7 +4868,7 @@
         <v>779.17750000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1755827864</v>
       </c>
@@ -4841,7 +4879,7 @@
         <v>702.47144000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1618786872</v>
       </c>
@@ -4852,7 +4890,7 @@
         <v>3196.0727999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-1529139876</v>
       </c>
@@ -4863,7 +4901,7 @@
         <v>764.60766999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-1419925839</v>
       </c>
@@ -4874,7 +4912,7 @@
         <v>150.04639</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-1295204656</v>
       </c>
@@ -4885,7 +4923,7 @@
         <v>882.66750000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-146508765</v>
       </c>
@@ -4896,7 +4934,7 @@
         <v>455.31225999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>776520</v>
       </c>
@@ -4907,7 +4945,7 @@
         <v>656.25440000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1993589440</v>
       </c>
@@ -4918,7 +4956,7 @@
         <v>762.35839999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-1528801606</v>
       </c>
@@ -4929,7 +4967,7 @@
         <v>54.722656000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-1745111458</v>
       </c>
@@ -4940,7 +4978,7 @@
         <v>2673.5205000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1183316353</v>
       </c>
@@ -4951,7 +4989,7 @@
         <v>361.83789999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>12142011</v>
       </c>
@@ -4962,7 +5000,7 @@
         <v>308.47753999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>163586344</v>
       </c>
@@ -4973,7 +5011,7 @@
         <v>6854.6122999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>362971318</v>
       </c>
@@ -4984,7 +5022,7 @@
         <v>5887.2039999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>-73586210</v>
       </c>
@@ -4995,7 +5033,7 @@
         <v>798.79420000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>361335133</v>
       </c>
@@ -5006,7 +5044,7 @@
         <v>228.28344999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1741088841</v>
       </c>
@@ -5017,7 +5055,7 @@
         <v>550.21704</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-473210366</v>
       </c>
@@ -5028,7 +5066,7 @@
         <v>2866.4506999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>707378374</v>
       </c>
@@ -5039,7 +5077,7 @@
         <v>503.74462999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-1043651914</v>
       </c>
@@ -5050,7 +5088,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>507774049</v>
       </c>
@@ -5061,7 +5099,7 @@
         <v>2824.8202999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2030940879</v>
       </c>
@@ -5072,7 +5110,7 @@
         <v>2792.3296</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>924781319</v>
       </c>
@@ -5083,7 +5121,7 @@
         <v>1665.1190999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1991530357</v>
       </c>
@@ -5094,7 +5132,7 @@
         <v>258.27832000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-745774660</v>
       </c>
@@ -5105,7 +5143,7 @@
         <v>928.6472</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>-1936828865</v>
       </c>
@@ -5116,7 +5154,7 @@
         <v>4184.1133</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2084072678</v>
       </c>
@@ -5127,7 +5165,7 @@
         <v>2588.232</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1145774953</v>
       </c>
@@ -5138,7 +5176,7 @@
         <v>3547.0468999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>-2025754144</v>
       </c>
@@ -5149,7 +5187,7 @@
         <v>1889.5609999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>249111853</v>
       </c>
@@ -5160,7 +5198,7 @@
         <v>3144.6367</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>-1879035786</v>
       </c>
@@ -5171,7 +5209,7 @@
         <v>1005.1091300000001</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>-431910332</v>
       </c>
@@ -5182,7 +5220,7 @@
         <v>603.50930000000005</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>-1116111871</v>
       </c>
@@ -5193,7 +5231,7 @@
         <v>5185.5870000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>-2059180139</v>
       </c>
@@ -5204,7 +5242,7 @@
         <v>4914.3119999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1207771437</v>
       </c>
@@ -5215,7 +5253,7 @@
         <v>2405.5565999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>-308842078</v>
       </c>
@@ -5226,7 +5264,7 @@
         <v>1197.1167</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>305660089</v>
       </c>
@@ -5237,7 +5275,7 @@
         <v>1532.2080000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>-5111757</v>
       </c>
@@ -5248,7 +5286,7 @@
         <v>318.14746000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>-596085581</v>
       </c>
@@ -5259,7 +5297,7 @@
         <v>536.27829999999994</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>-99180727</v>
       </c>
@@ -5270,7 +5308,7 @@
         <v>5155.9009999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>-2141444872</v>
       </c>
@@ -5281,7 +5319,7 @@
         <v>2492.7743999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>-1323028887</v>
       </c>
@@ -5292,7 +5330,7 @@
         <v>2328.7049999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>-67817219</v>
       </c>
@@ -5303,7 +5341,7 @@
         <v>243.10204999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>-1135642702</v>
       </c>
@@ -5314,7 +5352,7 @@
         <v>513.09789999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1595299896</v>
       </c>
@@ -5325,7 +5363,7 @@
         <v>4683.2133999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>-569505179</v>
       </c>
@@ -5336,7 +5374,7 @@
         <v>952.62670000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1013931930</v>
       </c>
@@ -5347,7 +5385,7 @@
         <v>640.0874</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>521087176</v>
       </c>
@@ -5358,7 +5396,7 @@
         <v>2800.4321</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>-1672107531</v>
       </c>
@@ -5369,7 +5407,7 @@
         <v>277.83447000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1453072259</v>
       </c>
@@ -5380,7 +5418,7 @@
         <v>294.9502</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>-217406900</v>
       </c>
@@ -5391,7 +5429,7 @@
         <v>104.778076</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1185017070</v>
       </c>
@@ -5402,7 +5440,7 @@
         <v>236.45898</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>-860847524</v>
       </c>
@@ -5413,7 +5451,7 @@
         <v>3950.7523999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>-1330919185</v>
       </c>
@@ -5424,7 +5462,7 @@
         <v>1114.2266</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>-1522729766</v>
       </c>
@@ -5435,7 +5473,7 @@
         <v>578.67309999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>416248391</v>
       </c>
@@ -5446,7 +5484,7 @@
         <v>649.05029999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>22262338</v>
       </c>
@@ -5457,7 +5495,7 @@
         <v>396.79736000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1943680142</v>
       </c>
@@ -5468,7 +5506,7 @@
         <v>518.72460000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>-1443108828</v>
       </c>
@@ -5479,7 +5517,7 @@
         <v>2739.6615999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1251996208</v>
       </c>
@@ -5490,7 +5528,7 @@
         <v>417.80883999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>-574747049</v>
       </c>
@@ -5501,7 +5539,7 @@
         <v>2988.9506999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>331755550</v>
       </c>
@@ -5512,7 +5550,7 @@
         <v>387.74560000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>725549688</v>
       </c>
@@ -5523,7 +5561,7 @@
         <v>2566.0771</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>-723731183</v>
       </c>
@@ -5534,7 +5572,7 @@
         <v>1089.1875</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>-2135029349</v>
       </c>
@@ -5545,7 +5583,7 @@
         <v>5025.1120000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>-138468197</v>
       </c>
@@ -5556,7 +5594,7 @@
         <v>268.46947999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>428667171</v>
       </c>
@@ -5567,7 +5605,7 @@
         <v>561.48755000000006</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>-2044248491</v>
       </c>
@@ -5578,7 +5616,7 @@
         <v>1035.1699000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>-1853226225</v>
       </c>
@@ -5589,7 +5627,7 @@
         <v>4023.1849999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>-1646402588</v>
       </c>
@@ -5600,7 +5638,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>830228297</v>
       </c>
@@ -5611,7 +5649,7 @@
         <v>490.82249999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>-844251978</v>
       </c>
@@ -5622,7 +5660,7 @@
         <v>2317.6626000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>706951856</v>
       </c>
@@ -5633,7 +5671,7 @@
         <v>317.34154999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>-1205195618</v>
       </c>
@@ -5644,7 +5682,7 @@
         <v>2353.5736999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1734051321</v>
       </c>
@@ -5655,7 +5693,7 @@
         <v>738.3279</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>-332047683</v>
       </c>
@@ -5666,7 +5704,7 @@
         <v>203.54320999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>-1497456224</v>
       </c>
@@ -5677,7 +5715,7 @@
         <v>2288.645</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B104">
         <f>AVERAGE(B4:B103)</f>
         <v>442.18525334000003</v>
@@ -5687,7 +5725,7 @@
         <v>1670.8390227399996</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B105">
         <f>B106/10</f>
         <v>26.014231760186743</v>
@@ -5697,7 +5735,7 @@
         <v>165.8913083036542</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B106">
         <f>STDEV(B4:B103)</f>
         <v>260.14231760186743</v>
@@ -5720,7 +5758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C106"/>
   <sheetViews>
@@ -5728,18 +5766,18 @@
       <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5750,7 +5788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-1286082570</v>
       </c>
@@ -5761,7 +5799,7 @@
         <v>3712.9652999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-1343278692</v>
       </c>
@@ -5772,7 +5810,7 @@
         <v>2404.9823999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-390706926</v>
       </c>
@@ -5783,7 +5821,7 @@
         <v>635.17065000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-488269753</v>
       </c>
@@ -5794,7 +5832,7 @@
         <v>1351.1375</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1355994690</v>
       </c>
@@ -5805,7 +5843,7 @@
         <v>9117.1200000000008</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-1870576674</v>
       </c>
@@ -5816,7 +5854,7 @@
         <v>805.32619999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>893439232</v>
       </c>
@@ -5827,7 +5865,7 @@
         <v>2718.52</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1224357370</v>
       </c>
@@ -5838,7 +5876,7 @@
         <v>1921.0015000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-1000844826</v>
       </c>
@@ -5849,7 +5887,7 @@
         <v>675.4126</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-410467215</v>
       </c>
@@ -5860,7 +5898,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-769891236</v>
       </c>
@@ -5871,7 +5909,7 @@
         <v>5432.45</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-1643004735</v>
       </c>
@@ -5882,7 +5920,7 @@
         <v>1260.0048999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1245262285</v>
       </c>
@@ -5893,7 +5931,7 @@
         <v>483.65870000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-1930500567</v>
       </c>
@@ -5904,7 +5942,7 @@
         <v>1129.1682000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>57707875</v>
       </c>
@@ -5915,7 +5953,7 @@
         <v>729.75243999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1491976541</v>
       </c>
@@ -5926,7 +5964,7 @@
         <v>2140.1098999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-1744824489</v>
       </c>
@@ -5937,7 +5975,7 @@
         <v>1074.8994</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-1177242190</v>
       </c>
@@ -5948,7 +5986,7 @@
         <v>337.02123999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>430749522</v>
       </c>
@@ -5959,7 +5997,7 @@
         <v>358.71409999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1899147052</v>
       </c>
@@ -5970,7 +6008,7 @@
         <v>4137.9076999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-918847619</v>
       </c>
@@ -5981,7 +6019,7 @@
         <v>3439.3139999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>67065317</v>
       </c>
@@ -5992,7 +6030,7 @@
         <v>6721.0195000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>843147817</v>
       </c>
@@ -6003,7 +6041,7 @@
         <v>3230.3719999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1755827864</v>
       </c>
@@ -6014,7 +6052,7 @@
         <v>1055.8289</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1618786872</v>
       </c>
@@ -6025,7 +6063,7 @@
         <v>4527.5200000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-1529139876</v>
       </c>
@@ -6036,7 +6074,7 @@
         <v>1727.5161000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-1419925839</v>
       </c>
@@ -6047,7 +6085,7 @@
         <v>6107.8945000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-1295204656</v>
       </c>
@@ -6058,7 +6096,7 @@
         <v>1654.3931</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-146508765</v>
       </c>
@@ -6069,7 +6107,7 @@
         <v>2442.2031000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>776520</v>
       </c>
@@ -6080,7 +6118,7 @@
         <v>2283.7269999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1993589440</v>
       </c>
@@ -6091,7 +6129,7 @@
         <v>2814.3510000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-1528801606</v>
       </c>
@@ -6102,7 +6140,7 @@
         <v>5124.1310000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-1745111458</v>
       </c>
@@ -6113,7 +6151,7 @@
         <v>4335.0640000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1183316353</v>
       </c>
@@ -6124,7 +6162,7 @@
         <v>8775.0020000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>12142011</v>
       </c>
@@ -6135,7 +6173,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>163586344</v>
       </c>
@@ -6146,7 +6184,7 @@
         <v>5522.1073999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>362971318</v>
       </c>
@@ -6157,7 +6195,7 @@
         <v>277.84766000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>-73586210</v>
       </c>
@@ -6168,7 +6206,7 @@
         <v>10096.251</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>361335133</v>
       </c>
@@ -6179,7 +6217,7 @@
         <v>4058.817</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1741088841</v>
       </c>
@@ -6190,7 +6228,7 @@
         <v>3421.5922999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-473210366</v>
       </c>
@@ -6201,7 +6239,7 @@
         <v>3042.9769999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>707378374</v>
       </c>
@@ -6212,7 +6250,7 @@
         <v>7308.3573999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-1043651914</v>
       </c>
@@ -6223,7 +6261,7 @@
         <v>898.93579999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>507774049</v>
       </c>
@@ -6234,7 +6272,7 @@
         <v>226.09424000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2030940879</v>
       </c>
@@ -6245,7 +6283,7 @@
         <v>3973.4281999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>924781319</v>
       </c>
@@ -6256,7 +6294,7 @@
         <v>3630.1055000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1991530357</v>
       </c>
@@ -6267,7 +6305,7 @@
         <v>2901.375</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-745774660</v>
       </c>
@@ -6278,7 +6316,7 @@
         <v>114.89258</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>-1936828865</v>
       </c>
@@ -6289,7 +6327,7 @@
         <v>1556.1104</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2084072678</v>
       </c>
@@ -6300,7 +6338,7 @@
         <v>1463.845</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1145774953</v>
       </c>
@@ -6311,7 +6349,7 @@
         <v>166.06592000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>-2025754144</v>
       </c>
@@ -6322,7 +6360,7 @@
         <v>5706.1350000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>249111853</v>
       </c>
@@ -6333,7 +6371,7 @@
         <v>470.42577999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>-1879035786</v>
       </c>
@@ -6344,7 +6382,7 @@
         <v>1681.8217999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>-431910332</v>
       </c>
@@ -6355,7 +6393,7 @@
         <v>3072.3330000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>-1116111871</v>
       </c>
@@ -6366,7 +6404,7 @@
         <v>6155.49</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>-2059180139</v>
       </c>
@@ -6377,7 +6415,7 @@
         <v>1697.5619999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1207771437</v>
       </c>
@@ -6388,7 +6426,7 @@
         <v>1144.7240999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>-308842078</v>
       </c>
@@ -6399,7 +6437,7 @@
         <v>1742.2998</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>305660089</v>
       </c>
@@ -6410,7 +6448,7 @@
         <v>5357.2924999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>-5111757</v>
       </c>
@@ -6421,7 +6459,7 @@
         <v>3857.6372000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>-596085581</v>
       </c>
@@ -6432,7 +6470,7 @@
         <v>2005.21</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>-99180727</v>
       </c>
@@ -6443,7 +6481,7 @@
         <v>11749.147999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>-2141444872</v>
       </c>
@@ -6454,7 +6492,7 @@
         <v>1291.4713999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>-1323028887</v>
       </c>
@@ -6465,7 +6503,7 @@
         <v>1009.9822</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>-67817219</v>
       </c>
@@ -6476,7 +6514,7 @@
         <v>7085.1464999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>-1135642702</v>
       </c>
@@ -6487,7 +6525,7 @@
         <v>12284.05</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1595299896</v>
       </c>
@@ -6498,7 +6536,7 @@
         <v>4087.8310000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>-569505179</v>
       </c>
@@ -6509,7 +6547,7 @@
         <v>918.77855999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1013931930</v>
       </c>
@@ -6520,7 +6558,7 @@
         <v>1669.9272000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>521087176</v>
       </c>
@@ -6531,7 +6569,7 @@
         <v>7362.9404000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>-1672107531</v>
       </c>
@@ -6542,7 +6580,7 @@
         <v>2581.915</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1453072259</v>
       </c>
@@ -6553,7 +6591,7 @@
         <v>1773.7021</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>-217406900</v>
       </c>
@@ -6564,7 +6602,7 @@
         <v>440.58715999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1185017070</v>
       </c>
@@ -6575,7 +6613,7 @@
         <v>3049.0127000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>-860847524</v>
       </c>
@@ -6586,7 +6624,7 @@
         <v>2746.5063</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>-1330919185</v>
       </c>
@@ -6597,7 +6635,7 @@
         <v>5405.1970000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>-1522729766</v>
       </c>
@@ -6608,7 +6646,7 @@
         <v>5327.3360000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>416248391</v>
       </c>
@@ -6619,7 +6657,7 @@
         <v>1091.0159000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>22262338</v>
       </c>
@@ -6630,7 +6668,7 @@
         <v>142.17357999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1943680142</v>
       </c>
@@ -6641,7 +6679,7 @@
         <v>2002.7602999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>-1443108828</v>
       </c>
@@ -6652,7 +6690,7 @@
         <v>1449.4179999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1251996208</v>
       </c>
@@ -6663,7 +6701,7 @@
         <v>884.2251</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>-574747049</v>
       </c>
@@ -6674,7 +6712,7 @@
         <v>4124.2866000000004</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>331755550</v>
       </c>
@@ -6685,7 +6723,7 @@
         <v>617.65186000000006</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>725549688</v>
       </c>
@@ -6696,7 +6734,7 @@
         <v>1636.3955000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>-723731183</v>
       </c>
@@ -6707,7 +6745,7 @@
         <v>1788.604</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>-2135029349</v>
       </c>
@@ -6718,7 +6756,7 @@
         <v>1473.0459000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>-138468197</v>
       </c>
@@ -6729,7 +6767,7 @@
         <v>4754.902</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>428667171</v>
       </c>
@@ -6740,7 +6778,7 @@
         <v>676.59280000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>-2044248491</v>
       </c>
@@ -6751,7 +6789,7 @@
         <v>244.8623</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>-1853226225</v>
       </c>
@@ -6762,7 +6800,7 @@
         <v>2908.2725</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>-1646402588</v>
       </c>
@@ -6773,7 +6811,7 @@
         <v>4259.7830000000004</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>830228297</v>
       </c>
@@ -6784,7 +6822,7 @@
         <v>3930.0430000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>-844251978</v>
       </c>
@@ -6795,7 +6833,7 @@
         <v>6879.2812000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>706951856</v>
       </c>
@@ -6806,7 +6844,7 @@
         <v>480.14526000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>-1205195618</v>
       </c>
@@ -6817,7 +6855,7 @@
         <v>3956.1006000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1734051321</v>
       </c>
@@ -6828,7 +6866,7 @@
         <v>112.22558600000001</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>-332047683</v>
       </c>
@@ -6839,7 +6877,7 @@
         <v>1963.8290999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>-1497456224</v>
       </c>
@@ -6850,7 +6888,7 @@
         <v>1129.4402</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B104">
         <f>AVERAGE(B4:B103)</f>
         <v>502.77022501999994</v>
@@ -6860,7 +6898,7 @@
         <v>2916.4197831600009</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B105">
         <f>B106/10</f>
         <v>28.493190686279227</v>
@@ -6870,7 +6908,7 @@
         <v>259.74062350822749</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B106">
         <f>STDEV(B4:B103)</f>
         <v>284.93190686279229</v>
@@ -6893,7 +6931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C106"/>
   <sheetViews>
@@ -6901,19 +6939,19 @@
       <selection activeCell="B104" sqref="B104:C106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6924,7 +6962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-1286082570</v>
       </c>
@@ -6935,7 +6973,7 @@
         <v>12615.733</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-1343278692</v>
       </c>
@@ -6946,7 +6984,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-390706926</v>
       </c>
@@ -6957,7 +6995,7 @@
         <v>15768.665999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-488269753</v>
       </c>
@@ -6968,7 +7006,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1355994690</v>
       </c>
@@ -6979,7 +7017,7 @@
         <v>1560.1669999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-1870576674</v>
       </c>
@@ -6990,7 +7028,7 @@
         <v>14645.218999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>893439232</v>
       </c>
@@ -7001,7 +7039,7 @@
         <v>8816.2829999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1224357370</v>
       </c>
@@ -7012,7 +7050,7 @@
         <v>2058.8254000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-1000844826</v>
       </c>
@@ -7023,7 +7061,7 @@
         <v>3954.6410000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-410467215</v>
       </c>
@@ -7034,7 +7072,7 @@
         <v>7258.0204999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-769891236</v>
       </c>
@@ -7045,7 +7083,7 @@
         <v>1367.0121999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-1643004735</v>
       </c>
@@ -7056,7 +7094,7 @@
         <v>613.69529999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1245262285</v>
       </c>
@@ -7067,7 +7105,7 @@
         <v>3453.0122000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-1930500567</v>
       </c>
@@ -7078,7 +7116,7 @@
         <v>1267.3942999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>57707875</v>
       </c>
@@ -7089,7 +7127,7 @@
         <v>423.62598000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1491976541</v>
       </c>
@@ -7100,7 +7138,7 @@
         <v>3816.232</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-1744824489</v>
       </c>
@@ -7111,7 +7149,7 @@
         <v>4000.2997999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-1177242190</v>
       </c>
@@ -7122,7 +7160,7 @@
         <v>7345.9853999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>430749522</v>
       </c>
@@ -7133,7 +7171,7 @@
         <v>6082.268</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1899147052</v>
       </c>
@@ -7144,7 +7182,7 @@
         <v>4544.9736000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-918847619</v>
       </c>
@@ -7155,7 +7193,7 @@
         <v>5091.2650000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>67065317</v>
       </c>
@@ -7166,7 +7204,7 @@
         <v>383.93042000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>843147817</v>
       </c>
@@ -7177,7 +7215,7 @@
         <v>4967.74</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1755827864</v>
       </c>
@@ -7188,7 +7226,7 @@
         <v>5722.3209999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1618786872</v>
       </c>
@@ -7199,7 +7237,7 @@
         <v>4240.6279999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-1529139876</v>
       </c>
@@ -7210,7 +7248,7 @@
         <v>462.88916</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-1419925839</v>
       </c>
@@ -7221,7 +7259,7 @@
         <v>4377.9009999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-1295204656</v>
       </c>
@@ -7232,7 +7270,7 @@
         <v>984.39086999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-146508765</v>
       </c>
@@ -7243,7 +7281,7 @@
         <v>7971.009</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>776520</v>
       </c>
@@ -7254,7 +7292,7 @@
         <v>18711.324000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1993589440</v>
       </c>
@@ -7265,7 +7303,7 @@
         <v>263.01317999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-1528801606</v>
       </c>
@@ -7276,7 +7314,7 @@
         <v>2669.5702999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-1745111458</v>
       </c>
@@ -7287,7 +7325,7 @@
         <v>1369.4115999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1183316353</v>
       </c>
@@ -7298,7 +7336,7 @@
         <v>781.90233999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>12142011</v>
       </c>
@@ -7309,7 +7347,7 @@
         <v>2868.5097999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>163586344</v>
       </c>
@@ -7320,7 +7358,7 @@
         <v>6949.1475</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>362971318</v>
       </c>
@@ -7331,7 +7369,7 @@
         <v>3715.21</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>-73586210</v>
       </c>
@@ -7342,7 +7380,7 @@
         <v>12663.437</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>361335133</v>
       </c>
@@ -7353,7 +7391,7 @@
         <v>7087.3850000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1741088841</v>
       </c>
@@ -7364,7 +7402,7 @@
         <v>6571.5195000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-473210366</v>
       </c>
@@ -7375,7 +7413,7 @@
         <v>5298.5736999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>707378374</v>
       </c>
@@ -7386,7 +7424,7 @@
         <v>343.03174000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-1043651914</v>
       </c>
@@ -7397,7 +7435,7 @@
         <v>6107.2979999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>507774049</v>
       </c>
@@ -7408,7 +7446,7 @@
         <v>1854.6196</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2030940879</v>
       </c>
@@ -7419,7 +7457,7 @@
         <v>5196.7075000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>924781319</v>
       </c>
@@ -7430,7 +7468,7 @@
         <v>3862.9535999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1991530357</v>
       </c>
@@ -7441,7 +7479,7 @@
         <v>5141.9306999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-745774660</v>
       </c>
@@ -7452,7 +7490,7 @@
         <v>14945.342000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>-1936828865</v>
       </c>
@@ -7463,7 +7501,7 @@
         <v>2645.5005000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2084072678</v>
       </c>
@@ -7474,7 +7512,7 @@
         <v>3279.08</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1145774953</v>
       </c>
@@ -7485,7 +7523,7 @@
         <v>8289.8680000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>-2025754144</v>
       </c>
@@ -7496,7 +7534,7 @@
         <v>2095.9434000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>249111853</v>
       </c>
@@ -7507,7 +7545,7 @@
         <v>1825.3617999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>-1879035786</v>
       </c>
@@ -7518,7 +7556,7 @@
         <v>2711.607</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>-431910332</v>
       </c>
@@ -7529,7 +7567,7 @@
         <v>11374.796</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>-1116111871</v>
       </c>
@@ -7540,7 +7578,7 @@
         <v>3216.2377999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>-2059180139</v>
       </c>
@@ -7551,7 +7589,7 @@
         <v>3324.3584000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1207771437</v>
       </c>
@@ -7562,7 +7600,7 @@
         <v>15421.762000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>-308842078</v>
       </c>
@@ -7573,7 +7611,7 @@
         <v>419.74119999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>305660089</v>
       </c>
@@ -7584,7 +7622,7 @@
         <v>3053.4389999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>-5111757</v>
       </c>
@@ -7595,7 +7633,7 @@
         <v>773.6377</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>-596085581</v>
       </c>
@@ -7606,7 +7644,7 @@
         <v>5578.9336000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>-99180727</v>
       </c>
@@ -7617,7 +7655,7 @@
         <v>4802.41</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>-2141444872</v>
       </c>
@@ -7628,7 +7666,7 @@
         <v>3460.8442</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>-1323028887</v>
       </c>
@@ -7639,7 +7677,7 @@
         <v>10002.199000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>-67817219</v>
       </c>
@@ -7650,7 +7688,7 @@
         <v>3534.6786999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>-1135642702</v>
       </c>
@@ -7661,7 +7699,7 @@
         <v>8886.36</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1595299896</v>
       </c>
@@ -7672,7 +7710,7 @@
         <v>4135.5234</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>-569505179</v>
       </c>
@@ -7683,7 +7721,7 @@
         <v>4557.6859999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1013931930</v>
       </c>
@@ -7694,7 +7732,7 @@
         <v>7346.1445000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>521087176</v>
       </c>
@@ -7705,7 +7743,7 @@
         <v>3755.7476000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>-1672107531</v>
       </c>
@@ -7716,7 +7754,7 @@
         <v>2395.5610000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1453072259</v>
       </c>
@@ -7727,7 +7765,7 @@
         <v>6809.7030000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>-217406900</v>
       </c>
@@ -7738,7 +7776,7 @@
         <v>2340.8222999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1185017070</v>
       </c>
@@ -7749,7 +7787,7 @@
         <v>2667.0419999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>-860847524</v>
       </c>
@@ -7760,7 +7798,7 @@
         <v>9286.1489999999994</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>-1330919185</v>
       </c>
@@ -7771,7 +7809,7 @@
         <v>1924.3098</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>-1522729766</v>
       </c>
@@ -7782,7 +7820,7 @@
         <v>6125.2372999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>416248391</v>
       </c>
@@ -7793,7 +7831,7 @@
         <v>7973.8086000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>22262338</v>
       </c>
@@ -7804,7 +7842,7 @@
         <v>3618.0556999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1943680142</v>
       </c>
@@ -7815,7 +7853,7 @@
         <v>1705.8123000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>-1443108828</v>
       </c>
@@ -7826,7 +7864,7 @@
         <v>4138.2640000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1251996208</v>
       </c>
@@ -7837,7 +7875,7 @@
         <v>4383.1035000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>-574747049</v>
       </c>
@@ -7848,7 +7886,7 @@
         <v>397.21776999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>331755550</v>
       </c>
@@ -7859,7 +7897,7 @@
         <v>10475.814</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>725549688</v>
       </c>
@@ -7870,7 +7908,7 @@
         <v>4922.1304</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>-723731183</v>
       </c>
@@ -7881,7 +7919,7 @@
         <v>948.23509999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>-2135029349</v>
       </c>
@@ -7892,7 +7930,7 @@
         <v>1197.1842999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>-138468197</v>
       </c>
@@ -7903,7 +7941,7 @@
         <v>4423.7879999999996</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>428667171</v>
       </c>
@@ -7914,7 +7952,7 @@
         <v>4950.3666999999996</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>-2044248491</v>
       </c>
@@ -7925,7 +7963,7 @@
         <v>5807.6530000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>-1853226225</v>
       </c>
@@ -7936,7 +7974,7 @@
         <v>12419.906999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>-1646402588</v>
       </c>
@@ -7947,7 +7985,7 @@
         <v>3636.8838000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>830228297</v>
       </c>
@@ -7958,7 +7996,7 @@
         <v>7281.45</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>-844251978</v>
       </c>
@@ -7969,7 +8007,7 @@
         <v>5424.1530000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>706951856</v>
       </c>
@@ -7980,7 +8018,7 @@
         <v>2205.0688</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>-1205195618</v>
       </c>
@@ -7991,7 +8029,7 @@
         <v>1482.1106</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1734051321</v>
       </c>
@@ -8002,7 +8040,7 @@
         <v>1320.0288</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>-332047683</v>
       </c>
@@ -8013,7 +8051,7 @@
         <v>9569.3880000000008</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>-1497456224</v>
       </c>
@@ -8024,7 +8062,7 @@
         <v>764.56029999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B104">
         <f>AVERAGE(B4:B103)</f>
         <v>584.7829496999999</v>
@@ -8034,7 +8072,7 @@
         <v>4854.2068306000001</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B105">
         <f>B106/10</f>
         <v>29.697678615677297</v>
@@ -8044,7 +8082,7 @@
         <v>394.89672582632107</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B106">
         <f>STDEV(B4:B103)</f>
         <v>296.97678615677296</v>
@@ -8067,7 +8105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C106"/>
   <sheetViews>
@@ -8075,18 +8113,18 @@
       <selection activeCell="B104" sqref="B104:C106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8097,7 +8135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-1286082570</v>
       </c>
@@ -8108,7 +8146,7 @@
         <v>8834.866</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-1343278692</v>
       </c>
@@ -8119,7 +8157,7 @@
         <v>1504.6579999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-390706926</v>
       </c>
@@ -8130,7 +8168,7 @@
         <v>1162.249</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-488269753</v>
       </c>
@@ -8141,7 +8179,7 @@
         <v>17278.094000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1355994690</v>
       </c>
@@ -8152,7 +8190,7 @@
         <v>1193.9507000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-1870576674</v>
       </c>
@@ -8163,7 +8201,7 @@
         <v>3639.4546</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>893439232</v>
       </c>
@@ -8174,7 +8212,7 @@
         <v>2805.0835000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1224357370</v>
       </c>
@@ -8185,7 +8223,7 @@
         <v>8079.6170000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-1000844826</v>
       </c>
@@ -8196,7 +8234,7 @@
         <v>5018.3419999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-410467215</v>
       </c>
@@ -8207,7 +8245,7 @@
         <v>947.80520000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-769891236</v>
       </c>
@@ -8218,7 +8256,7 @@
         <v>8759.59</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-1643004735</v>
       </c>
@@ -8229,7 +8267,7 @@
         <v>2062.7687999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1245262285</v>
       </c>
@@ -8240,7 +8278,7 @@
         <v>1864.0676000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-1930500567</v>
       </c>
@@ -8251,7 +8289,7 @@
         <v>5366.9263000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>57707875</v>
       </c>
@@ -8262,7 +8300,7 @@
         <v>5940.1549999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1491976541</v>
       </c>
@@ -8273,7 +8311,7 @@
         <v>18246.64</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-1744824489</v>
       </c>
@@ -8284,7 +8322,7 @@
         <v>2883.8119999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-1177242190</v>
       </c>
@@ -8295,7 +8333,7 @@
         <v>11459.931</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>430749522</v>
       </c>
@@ -8306,7 +8344,7 @@
         <v>4454.8209999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1899147052</v>
       </c>
@@ -8317,7 +8355,7 @@
         <v>2622.8173999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-918847619</v>
       </c>
@@ -8328,7 +8366,7 @@
         <v>16261.1875</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>67065317</v>
       </c>
@@ -8339,7 +8377,7 @@
         <v>5047.1030000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>843147817</v>
       </c>
@@ -8350,7 +8388,7 @@
         <v>1480.7517</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1755827864</v>
       </c>
@@ -8361,7 +8399,7 @@
         <v>4658.8429999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1618786872</v>
       </c>
@@ -8372,7 +8410,7 @@
         <v>1545.7175</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-1529139876</v>
       </c>
@@ -8383,7 +8421,7 @@
         <v>7147.7070000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-1419925839</v>
       </c>
@@ -8394,7 +8432,7 @@
         <v>1757.5552</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-1295204656</v>
       </c>
@@ -8405,7 +8443,7 @@
         <v>12360.308999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-146508765</v>
       </c>
@@ -8416,7 +8454,7 @@
         <v>5425.7772999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>776520</v>
       </c>
@@ -8427,7 +8465,7 @@
         <v>3549.6080000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1993589440</v>
       </c>
@@ -8438,7 +8476,7 @@
         <v>11106.565000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-1528801606</v>
       </c>
@@ -8449,7 +8487,7 @@
         <v>1811.8065999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-1745111458</v>
       </c>
@@ -8460,7 +8498,7 @@
         <v>5513.1379999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1183316353</v>
       </c>
@@ -8471,7 +8509,7 @@
         <v>6047.7120000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>12142011</v>
       </c>
@@ -8482,7 +8520,7 @@
         <v>2128.1080000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>163586344</v>
       </c>
@@ -8493,7 +8531,7 @@
         <v>18374.370999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>362971318</v>
       </c>
@@ -8504,7 +8542,7 @@
         <v>3848.3661999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>-73586210</v>
       </c>
@@ -8515,7 +8553,7 @@
         <v>8361.24</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>361335133</v>
       </c>
@@ -8526,7 +8564,7 @@
         <v>10790.985000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1741088841</v>
       </c>
@@ -8537,7 +8575,7 @@
         <v>1055.1034999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-473210366</v>
       </c>
@@ -8548,7 +8586,7 @@
         <v>9796.5220000000008</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>707378374</v>
       </c>
@@ -8559,7 +8597,7 @@
         <v>124.802734</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-1043651914</v>
       </c>
@@ -8570,7 +8608,7 @@
         <v>21850.396000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>507774049</v>
       </c>
@@ -8581,7 +8619,7 @@
         <v>24920.95</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2030940879</v>
       </c>
@@ -8592,7 +8630,7 @@
         <v>15416.107</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>924781319</v>
       </c>
@@ -8603,7 +8641,7 @@
         <v>7515.1719999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1991530357</v>
       </c>
@@ -8614,7 +8652,7 @@
         <v>5348.6693999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-745774660</v>
       </c>
@@ -8625,7 +8663,7 @@
         <v>15159.478999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>-1936828865</v>
       </c>
@@ -8636,7 +8674,7 @@
         <v>3582.4448000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2084072678</v>
       </c>
@@ -8647,7 +8685,7 @@
         <v>1640.7651000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1145774953</v>
       </c>
@@ -8658,7 +8696,7 @@
         <v>2487.2710000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>-2025754144</v>
       </c>
@@ -8669,7 +8707,7 @@
         <v>7370.3915999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>249111853</v>
       </c>
@@ -8680,7 +8718,7 @@
         <v>6659.7655999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>-1879035786</v>
       </c>
@@ -8691,7 +8729,7 @@
         <v>3924.3690999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>-431910332</v>
       </c>
@@ -8702,7 +8740,7 @@
         <v>1102.3117999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>-1116111871</v>
       </c>
@@ -8713,7 +8751,7 @@
         <v>18546.601999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>-2059180139</v>
       </c>
@@ -8724,7 +8762,7 @@
         <v>8394.0169999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1207771437</v>
       </c>
@@ -8735,7 +8773,7 @@
         <v>947.15769999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>-308842078</v>
       </c>
@@ -8746,7 +8784,7 @@
         <v>1287.2351000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>305660089</v>
       </c>
@@ -8757,7 +8795,7 @@
         <v>21841.22</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>-5111757</v>
       </c>
@@ -8768,7 +8806,7 @@
         <v>6872.7879999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>-596085581</v>
       </c>
@@ -8779,7 +8817,7 @@
         <v>3782.4297000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>-99180727</v>
       </c>
@@ -8790,7 +8828,7 @@
         <v>2917.04</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>-2141444872</v>
       </c>
@@ -8801,7 +8839,7 @@
         <v>18547.060000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>-1323028887</v>
       </c>
@@ -8812,7 +8850,7 @@
         <v>3781.63</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>-67817219</v>
       </c>
@@ -8823,7 +8861,7 @@
         <v>8529.6569999999992</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>-1135642702</v>
       </c>
@@ -8834,7 +8872,7 @@
         <v>24389.405999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1595299896</v>
       </c>
@@ -8845,7 +8883,7 @@
         <v>25224.004000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>-569505179</v>
       </c>
@@ -8856,7 +8894,7 @@
         <v>1302.5542</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1013931930</v>
       </c>
@@ -8867,7 +8905,7 @@
         <v>24717.113000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>521087176</v>
       </c>
@@ -8878,7 +8916,7 @@
         <v>2590.83</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>-1672107531</v>
       </c>
@@ -8889,7 +8927,7 @@
         <v>15064.152</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1453072259</v>
       </c>
@@ -8900,7 +8938,7 @@
         <v>7290.7803000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>-217406900</v>
       </c>
@@ -8911,7 +8949,7 @@
         <v>5780.5454</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1185017070</v>
       </c>
@@ -8922,7 +8960,7 @@
         <v>32867.839999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>-860847524</v>
       </c>
@@ -8933,7 +8971,7 @@
         <v>1238.9994999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>-1330919185</v>
       </c>
@@ -8944,7 +8982,7 @@
         <v>4098.4229999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>-1522729766</v>
       </c>
@@ -8955,7 +8993,7 @@
         <v>1943.1605999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>416248391</v>
       </c>
@@ -8966,7 +9004,7 @@
         <v>11381.651</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>22262338</v>
       </c>
@@ -8977,7 +9015,7 @@
         <v>9886.8410000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1943680142</v>
       </c>
@@ -8988,7 +9026,7 @@
         <v>3671.1147000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>-1443108828</v>
       </c>
@@ -8999,7 +9037,7 @@
         <v>6119.665</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1251996208</v>
       </c>
@@ -9010,7 +9048,7 @@
         <v>16320.002</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>-574747049</v>
       </c>
@@ -9021,7 +9059,7 @@
         <v>7758.2227000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>331755550</v>
       </c>
@@ -9032,7 +9070,7 @@
         <v>7235</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>725549688</v>
       </c>
@@ -9043,7 +9081,7 @@
         <v>1546.8494000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>-723731183</v>
       </c>
@@ -9054,7 +9092,7 @@
         <v>386.74536000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>-2135029349</v>
       </c>
@@ -9065,7 +9103,7 @@
         <v>1870.0021999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>-138468197</v>
       </c>
@@ -9076,7 +9114,7 @@
         <v>2101.6550000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>428667171</v>
       </c>
@@ -9087,7 +9125,7 @@
         <v>24303.287</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>-2044248491</v>
       </c>
@@ -9098,7 +9136,7 @@
         <v>1524.1171999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>-1853226225</v>
       </c>
@@ -9109,7 +9147,7 @@
         <v>13255.972</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>-1646402588</v>
       </c>
@@ -9120,7 +9158,7 @@
         <v>5259.2759999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>830228297</v>
       </c>
@@ -9131,7 +9169,7 @@
         <v>2962.8690999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>-844251978</v>
       </c>
@@ -9142,7 +9180,7 @@
         <v>3698.6849999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>706951856</v>
       </c>
@@ -9153,7 +9191,7 @@
         <v>23174.86</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>-1205195618</v>
       </c>
@@ -9164,7 +9202,7 @@
         <v>662.16869999999994</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1734051321</v>
       </c>
@@ -9175,7 +9213,7 @@
         <v>5803.4193999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>-332047683</v>
       </c>
@@ -9186,7 +9224,7 @@
         <v>10470.26</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>-1497456224</v>
       </c>
@@ -9197,7 +9235,7 @@
         <v>10516.203</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B104">
         <f>AVERAGE(B4:B103)</f>
         <v>601.49045723999984</v>
@@ -9207,7 +9245,7 @@
         <v>7811.6053099399969</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B105">
         <f>B106/10</f>
         <v>26.27020748562537</v>
@@ -9217,7 +9255,7 @@
         <v>722.39368852199664</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B106">
         <f>STDEV(B4:B103)</f>
         <v>262.70207485625372</v>
@@ -9240,7 +9278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C106"/>
   <sheetViews>
@@ -9248,19 +9286,19 @@
       <selection activeCell="B104" sqref="B104:C106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9271,7 +9309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-1286082570</v>
       </c>
@@ -9282,7 +9320,7 @@
         <v>1027.9570000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-1343278692</v>
       </c>
@@ -9293,7 +9331,7 @@
         <v>5444.0619999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-390706926</v>
       </c>
@@ -9304,7 +9342,7 @@
         <v>42498.535000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-488269753</v>
       </c>
@@ -9315,7 +9353,7 @@
         <v>2107.4746</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1355994690</v>
       </c>
@@ -9326,7 +9364,7 @@
         <v>3791.7222000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-1870576674</v>
       </c>
@@ -9337,7 +9375,7 @@
         <v>9439.7129999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>893439232</v>
       </c>
@@ -9348,7 +9386,7 @@
         <v>2941.6464999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1224357370</v>
       </c>
@@ -9359,7 +9397,7 @@
         <v>40487.241999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-1000844826</v>
       </c>
@@ -9370,7 +9408,7 @@
         <v>22100.639999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-410467215</v>
       </c>
@@ -9381,7 +9419,7 @@
         <v>35408.6</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-769891236</v>
       </c>
@@ -9392,7 +9430,7 @@
         <v>5268.8554999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-1643004735</v>
       </c>
@@ -9403,7 +9441,7 @@
         <v>5978.4296999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1245262285</v>
       </c>
@@ -9414,7 +9452,7 @@
         <v>4059.4560000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-1930500567</v>
       </c>
@@ -9425,7 +9463,7 @@
         <v>48500</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>57707875</v>
       </c>
@@ -9436,7 +9474,7 @@
         <v>24184.562000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1491976541</v>
       </c>
@@ -9447,7 +9485,7 @@
         <v>1757.2077999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-1744824489</v>
       </c>
@@ -9458,7 +9496,7 @@
         <v>6280.3370000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-1177242190</v>
       </c>
@@ -9469,7 +9507,7 @@
         <v>41187.188000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>430749522</v>
       </c>
@@ -9480,7 +9518,7 @@
         <v>10632.724</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1899147052</v>
       </c>
@@ -9491,7 +9529,7 @@
         <v>6919.7929999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-918847619</v>
       </c>
@@ -9502,7 +9540,7 @@
         <v>25860.648000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>67065317</v>
       </c>
@@ -9513,7 +9551,7 @@
         <v>12849.269</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>843147817</v>
       </c>
@@ -9524,7 +9562,7 @@
         <v>8109.0330000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1755827864</v>
       </c>
@@ -9535,7 +9573,7 @@
         <v>12144.684999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1618786872</v>
       </c>
@@ -9546,7 +9584,7 @@
         <v>9319.14</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-1529139876</v>
       </c>
@@ -9557,7 +9595,7 @@
         <v>6457.6109999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-1419925839</v>
       </c>
@@ -9568,7 +9606,7 @@
         <v>15320.725</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-1295204656</v>
       </c>
@@ -9579,7 +9617,7 @@
         <v>3075.1093999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-146508765</v>
       </c>
@@ -9590,7 +9628,7 @@
         <v>1628.0175999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>776520</v>
       </c>
@@ -9601,7 +9639,7 @@
         <v>7634.0565999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1993589440</v>
       </c>
@@ -9612,7 +9650,7 @@
         <v>3577.0918000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-1528801606</v>
       </c>
@@ -9623,7 +9661,7 @@
         <v>46374.04</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-1745111458</v>
       </c>
@@ -9634,7 +9672,7 @@
         <v>8983.0730000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1183316353</v>
       </c>
@@ -9645,7 +9683,7 @@
         <v>17728.245999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>12142011</v>
       </c>
@@ -9656,7 +9694,7 @@
         <v>28059.77</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>163586344</v>
       </c>
@@ -9667,7 +9705,7 @@
         <v>31397.266</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>362971318</v>
       </c>
@@ -9678,7 +9716,7 @@
         <v>7012.5625</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>-73586210</v>
       </c>
@@ -9689,7 +9727,7 @@
         <v>1210.1731</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>361335133</v>
       </c>
@@ -9700,7 +9738,7 @@
         <v>11929.815000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1741088841</v>
       </c>
@@ -9711,7 +9749,7 @@
         <v>15096.112999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-473210366</v>
       </c>
@@ -9722,7 +9760,7 @@
         <v>33170.811999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>707378374</v>
       </c>
@@ -9733,7 +9771,7 @@
         <v>13682.439</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-1043651914</v>
       </c>
@@ -9744,7 +9782,7 @@
         <v>3706.585</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>507774049</v>
       </c>
@@ -9755,7 +9793,7 @@
         <v>29858.442999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2030940879</v>
       </c>
@@ -9766,7 +9804,7 @@
         <v>45533.43</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>924781319</v>
       </c>
@@ -9777,7 +9815,7 @@
         <v>4910.2640000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1991530357</v>
       </c>
@@ -9788,7 +9826,7 @@
         <v>1600.1011000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-745774660</v>
       </c>
@@ -9799,7 +9837,7 @@
         <v>18705.307000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>-1936828865</v>
       </c>
@@ -9810,7 +9848,7 @@
         <v>10913.282999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2084072678</v>
       </c>
@@ -9821,7 +9859,7 @@
         <v>48500</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1145774953</v>
       </c>
@@ -9832,7 +9870,7 @@
         <v>1846.6621</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>-2025754144</v>
       </c>
@@ -9843,7 +9881,7 @@
         <v>13000.956</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>249111853</v>
       </c>
@@ -9854,7 +9892,7 @@
         <v>898.86645999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>-1879035786</v>
       </c>
@@ -9865,7 +9903,7 @@
         <v>20003.717000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>-431910332</v>
       </c>
@@ -9876,7 +9914,7 @@
         <v>14995.111000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>-1116111871</v>
       </c>
@@ -9887,7 +9925,7 @@
         <v>15649.186</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>-2059180139</v>
       </c>
@@ -9898,7 +9936,7 @@
         <v>11428.516</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1207771437</v>
       </c>
@@ -9909,7 +9947,7 @@
         <v>9048.3089999999993</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>-308842078</v>
       </c>
@@ -9920,7 +9958,7 @@
         <v>4171.3525</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>305660089</v>
       </c>
@@ -9931,7 +9969,7 @@
         <v>5809.7160000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>-5111757</v>
       </c>
@@ -9942,7 +9980,7 @@
         <v>6907.6953000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>-596085581</v>
       </c>
@@ -9953,7 +9991,7 @@
         <v>35650.027000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>-99180727</v>
       </c>
@@ -9964,7 +10002,7 @@
         <v>9815.607</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>-2141444872</v>
       </c>
@@ -9975,7 +10013,7 @@
         <v>48500</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>-1323028887</v>
       </c>
@@ -9986,7 +10024,7 @@
         <v>29316.974999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>-67817219</v>
       </c>
@@ -9997,7 +10035,7 @@
         <v>39601.425999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>-1135642702</v>
       </c>
@@ -10008,7 +10046,7 @@
         <v>5024.5775999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1595299896</v>
       </c>
@@ -10019,7 +10057,7 @@
         <v>1253.5413000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>-569505179</v>
       </c>
@@ -10030,7 +10068,7 @@
         <v>6712.3477000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1013931930</v>
       </c>
@@ -10041,7 +10079,7 @@
         <v>19138.18</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>521087176</v>
       </c>
@@ -10052,7 +10090,7 @@
         <v>1272.3588999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>-1672107531</v>
       </c>
@@ -10063,7 +10101,7 @@
         <v>3104.6558</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1453072259</v>
       </c>
@@ -10074,7 +10112,7 @@
         <v>48500</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>-217406900</v>
       </c>
@@ -10085,7 +10123,7 @@
         <v>35397.315999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1185017070</v>
       </c>
@@ -10096,7 +10134,7 @@
         <v>5605.299</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>-860847524</v>
       </c>
@@ -10107,7 +10145,7 @@
         <v>5153.9080000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>-1330919185</v>
       </c>
@@ -10118,7 +10156,7 @@
         <v>976.68065999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>-1522729766</v>
       </c>
@@ -10129,7 +10167,7 @@
         <v>4141.8280000000004</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>416248391</v>
       </c>
@@ -10140,7 +10178,7 @@
         <v>9024.8459999999995</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>22262338</v>
       </c>
@@ -10151,7 +10189,7 @@
         <v>21962.32</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1943680142</v>
       </c>
@@ -10162,7 +10200,7 @@
         <v>13885.004999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>-1443108828</v>
       </c>
@@ -10173,7 +10211,7 @@
         <v>12655.385</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1251996208</v>
       </c>
@@ -10184,7 +10222,7 @@
         <v>2869.5369999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>-574747049</v>
       </c>
@@ -10195,7 +10233,7 @@
         <v>26215.370999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>331755550</v>
       </c>
@@ -10206,7 +10244,7 @@
         <v>11743.314</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>725549688</v>
       </c>
@@ -10217,7 +10255,7 @@
         <v>41711.360000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>-723731183</v>
       </c>
@@ -10228,7 +10266,7 @@
         <v>48500</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>-2135029349</v>
       </c>
@@ -10239,7 +10277,7 @@
         <v>4619.7255999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>-138468197</v>
       </c>
@@ -10250,7 +10288,7 @@
         <v>2666.1104</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>428667171</v>
       </c>
@@ -10261,7 +10299,7 @@
         <v>24198.543000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>-2044248491</v>
       </c>
@@ -10272,7 +10310,7 @@
         <v>15763</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>-1853226225</v>
       </c>
@@ -10283,7 +10321,7 @@
         <v>37552.163999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>-1646402588</v>
       </c>
@@ -10294,7 +10332,7 @@
         <v>8469.0859999999993</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>830228297</v>
       </c>
@@ -10305,7 +10343,7 @@
         <v>13220.346</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>-844251978</v>
       </c>
@@ -10316,7 +10354,7 @@
         <v>19676.817999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>706951856</v>
       </c>
@@ -10327,7 +10365,7 @@
         <v>48500</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>-1205195618</v>
       </c>
@@ -10338,7 +10376,7 @@
         <v>24683.048999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1734051321</v>
       </c>
@@ -10349,7 +10387,7 @@
         <v>5024.7016999999996</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>-332047683</v>
       </c>
@@ -10360,7 +10398,7 @@
         <v>2681.6293999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>-1497456224</v>
       </c>
@@ -10371,7 +10409,7 @@
         <v>48066.89</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B104">
         <f>AVERAGE(B4:B103)</f>
         <v>642.55835690000026</v>
@@ -10381,7 +10419,7 @@
         <v>16509.772708199998</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B105">
         <f>B106/10</f>
         <v>29.015278873085435</v>
@@ -10391,7 +10429,7 @@
         <v>1491.6277345921444</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B106">
         <f>STDEV(B4:B103)</f>
         <v>290.15278873085435</v>
@@ -10414,7 +10452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C106"/>
   <sheetViews>
@@ -10422,19 +10460,19 @@
       <selection activeCell="B104" sqref="B104:C106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10445,7 +10483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-1286082570</v>
       </c>
@@ -10456,7 +10494,7 @@
         <v>5591.3059999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-1343278692</v>
       </c>
@@ -10467,7 +10505,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-390706926</v>
       </c>
@@ -10478,7 +10516,7 @@
         <v>7693.1513999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-488269753</v>
       </c>
@@ -10489,7 +10527,7 @@
         <v>18622.080000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1355994690</v>
       </c>
@@ -10500,7 +10538,7 @@
         <v>26464.937999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-1870576674</v>
       </c>
@@ -10511,7 +10549,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>893439232</v>
       </c>
@@ -10522,7 +10560,7 @@
         <v>47720.866999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1224357370</v>
       </c>
@@ -10533,7 +10571,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-1000844826</v>
       </c>
@@ -10544,7 +10582,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-410467215</v>
       </c>
@@ -10555,7 +10593,7 @@
         <v>16467.495999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-769891236</v>
       </c>
@@ -10566,7 +10604,7 @@
         <v>3385.2426999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-1643004735</v>
       </c>
@@ -10577,7 +10615,7 @@
         <v>11290.592000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1245262285</v>
       </c>
@@ -10588,7 +10626,7 @@
         <v>44366.65</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-1930500567</v>
       </c>
@@ -10599,7 +10637,7 @@
         <v>-1260</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>57707875</v>
       </c>
@@ -10610,7 +10648,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1491976541</v>
       </c>
@@ -10621,7 +10659,7 @@
         <v>22756.928</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-1744824489</v>
       </c>
@@ -10632,7 +10670,7 @@
         <v>41124.07</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-1177242190</v>
       </c>
@@ -10643,7 +10681,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>430749522</v>
       </c>
@@ -10654,7 +10692,7 @@
         <v>27508.282999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1899147052</v>
       </c>
@@ -10665,7 +10703,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-918847619</v>
       </c>
@@ -10676,7 +10714,7 @@
         <v>465.33789999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>67065317</v>
       </c>
@@ -10687,7 +10725,7 @@
         <v>20575.666000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>843147817</v>
       </c>
@@ -10698,7 +10736,7 @@
         <v>13376.013999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1755827864</v>
       </c>
@@ -10709,7 +10747,7 @@
         <v>17254.456999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1618786872</v>
       </c>
@@ -10720,7 +10758,7 @@
         <v>250.83008000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-1529139876</v>
       </c>
@@ -10731,7 +10769,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-1419925839</v>
       </c>
@@ -10742,7 +10780,7 @@
         <v>5652.55</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-1295204656</v>
       </c>
@@ -10753,7 +10791,7 @@
         <v>13253.941000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-146508765</v>
       </c>
@@ -10764,7 +10802,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>776520</v>
       </c>
@@ -10775,7 +10813,7 @@
         <v>31447.451000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1993589440</v>
       </c>
@@ -10786,7 +10824,7 @@
         <v>11533.089</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-1528801606</v>
       </c>
@@ -10797,7 +10835,7 @@
         <v>17179.432000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-1745111458</v>
       </c>
@@ -10808,7 +10846,7 @@
         <v>18182.576000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1183316353</v>
       </c>
@@ -10819,7 +10857,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>12142011</v>
       </c>
@@ -10830,7 +10868,7 @@
         <v>9372.3330000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>163586344</v>
       </c>
@@ -10841,7 +10879,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>362971318</v>
       </c>
@@ -10852,7 +10890,7 @@
         <v>28158.484</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>-73586210</v>
       </c>
@@ -10863,7 +10901,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>361335133</v>
       </c>
@@ -10874,7 +10912,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1741088841</v>
       </c>
@@ -10885,7 +10923,7 @@
         <v>24311.25</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-473210366</v>
       </c>
@@ -10896,7 +10934,7 @@
         <v>8009.5312000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>707378374</v>
       </c>
@@ -10907,7 +10945,7 @@
         <v>27161.562000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-1043651914</v>
       </c>
@@ -10918,7 +10956,7 @@
         <v>48691.707000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>507774049</v>
       </c>
@@ -10929,7 +10967,7 @@
         <v>17436.13</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2030940879</v>
       </c>
@@ -10940,7 +10978,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>924781319</v>
       </c>
@@ -10951,7 +10989,7 @@
         <v>43531.016000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1991530357</v>
       </c>
@@ -10962,7 +11000,7 @@
         <v>20530.771000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-745774660</v>
       </c>
@@ -10973,7 +11011,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>-1936828865</v>
       </c>
@@ -10984,7 +11022,7 @@
         <v>45240.51</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2084072678</v>
       </c>
@@ -10995,7 +11033,7 @@
         <v>12166.766</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1145774953</v>
       </c>
@@ -11006,7 +11044,7 @@
         <v>16250.635</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>-2025754144</v>
       </c>
@@ -11017,7 +11055,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>249111853</v>
       </c>
@@ -11028,7 +11066,7 @@
         <v>27933.605</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>-1879035786</v>
       </c>
@@ -11039,7 +11077,7 @@
         <v>39648.258000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>-431910332</v>
       </c>
@@ -11050,7 +11088,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>-1116111871</v>
       </c>
@@ -11061,7 +11099,7 @@
         <v>1331.2307000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>-2059180139</v>
       </c>
@@ -11072,7 +11110,7 @@
         <v>24407.317999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1207771437</v>
       </c>
@@ -11083,7 +11121,7 @@
         <v>42162.476999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>-308842078</v>
       </c>
@@ -11094,7 +11132,7 @@
         <v>15658.723</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>305660089</v>
       </c>
@@ -11105,7 +11143,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>-5111757</v>
       </c>
@@ -11116,7 +11154,7 @@
         <v>19880.146000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>-596085581</v>
       </c>
@@ -11127,7 +11165,7 @@
         <v>14376.620999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>-99180727</v>
       </c>
@@ -11138,7 +11176,7 @@
         <v>1916.2963999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>-2141444872</v>
       </c>
@@ -11149,7 +11187,7 @@
         <v>35348.32</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>-1323028887</v>
       </c>
@@ -11160,7 +11198,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>-67817219</v>
       </c>
@@ -11171,7 +11209,7 @@
         <v>16529.796999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>-1135642702</v>
       </c>
@@ -11182,7 +11220,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1595299896</v>
       </c>
@@ -11193,7 +11231,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>-569505179</v>
       </c>
@@ -11204,7 +11242,7 @@
         <v>4167.8783999999996</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1013931930</v>
       </c>
@@ -11215,7 +11253,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>521087176</v>
       </c>
@@ -11226,7 +11264,7 @@
         <v>36177.991999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>-1672107531</v>
       </c>
@@ -11237,7 +11275,7 @@
         <v>6379.1553000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1453072259</v>
       </c>
@@ -11248,7 +11286,7 @@
         <v>3490.2123999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>-217406900</v>
       </c>
@@ -11259,7 +11297,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1185017070</v>
       </c>
@@ -11270,7 +11308,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>-860847524</v>
       </c>
@@ -11281,7 +11319,7 @@
         <v>41072.074000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>-1330919185</v>
       </c>
@@ -11292,7 +11330,7 @@
         <v>13248.437</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>-1522729766</v>
       </c>
@@ -11303,7 +11341,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>416248391</v>
       </c>
@@ -11314,7 +11352,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>22262338</v>
       </c>
@@ -11325,7 +11363,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1943680142</v>
       </c>
@@ -11336,7 +11374,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>-1443108828</v>
       </c>
@@ -11347,7 +11385,7 @@
         <v>41793.93</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1251996208</v>
       </c>
@@ -11358,7 +11396,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>-574747049</v>
       </c>
@@ -11369,7 +11407,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>331755550</v>
       </c>
@@ -11380,7 +11418,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>725549688</v>
       </c>
@@ -11391,7 +11429,7 @@
         <v>35673.902000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>-723731183</v>
       </c>
@@ -11402,7 +11440,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>-2135029349</v>
       </c>
@@ -11413,7 +11451,7 @@
         <v>10399.731</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>-138468197</v>
       </c>
@@ -11424,7 +11462,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>428667171</v>
       </c>
@@ -11435,7 +11473,7 @@
         <v>29841.008000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>-2044248491</v>
       </c>
@@ -11446,7 +11484,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>-1853226225</v>
       </c>
@@ -11457,7 +11495,7 @@
         <v>19568.629000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>-1646402588</v>
       </c>
@@ -11468,7 +11506,7 @@
         <v>-1260</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>830228297</v>
       </c>
@@ -11479,7 +11517,7 @@
         <v>38384.379999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>-844251978</v>
       </c>
@@ -11490,7 +11528,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>706951856</v>
       </c>
@@ -11501,7 +11539,7 @@
         <v>21922.245999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>-1205195618</v>
       </c>
@@ -11512,7 +11550,7 @@
         <v>6708.7709999999997</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1734051321</v>
       </c>
@@ -11523,7 +11561,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>-332047683</v>
       </c>
@@ -11534,7 +11572,7 @@
         <v>1961.0459000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>-1497456224</v>
       </c>
@@ -11545,7 +11583,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B104">
         <f>AVERAGE(B4:B103)</f>
         <v>682.29131280000013</v>
@@ -11555,7 +11593,7 @@
         <v>30742.358273800008</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B105">
         <f>B106/10</f>
         <v>26.615133625721835</v>
@@ -11565,7 +11603,7 @@
         <v>1784.0927577193943</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B106">
         <f>STDEV(B4:B103)</f>
         <v>266.15133625721836</v>
